--- a/apps/pczone/test/support/data/simple_built_platforms_shopee.xlsx
+++ b/apps/pczone/test/support/data/simple_built_platforms_shopee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achilles/Projects/pczone_umbrella/apps/pczone/test/support/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ED3A0D-1E19-9142-B1E0-DD752A64CA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E420A050-3DDF-7248-A037-3EBA5635B8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{B9F052DF-C490-8349-8AB1-D6D1286E076A}"/>
   </bookViews>
@@ -86,10 +86,10 @@
     <t>hp-elitedesk-800-g2-mini-65w</t>
   </si>
   <si>
-    <t>simple_built</t>
-  </si>
-  <si>
     <t>product_code</t>
+  </si>
+  <si>
+    <t>simple_built_code</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,13 +465,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
